--- a/Properties/Orion_Prosper/OrionProsper_WasteAnalysis_Validated.xlsx
+++ b/Properties/Orion_Prosper/OrionProsper_WasteAnalysis_Validated.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QUALITY_CHECK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCUMENTATION_NOTES" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONTRACT_TERMS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGULATORY_COMPLIANCE" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,13 +34,42 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001E3A8A"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00F59E0B"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE2E2"/>
+        <bgColor rgb="00FEE2E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEAFE"/>
+        <bgColor rgb="00DBEAFE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,11 +90,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -506,11 +542,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -562,11 +594,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
@@ -635,19 +663,13 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>SERVICE CONFIGURATION</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -733,19 +755,13 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
           <t>FINANCIAL METRICS</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -830,19 +846,13 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
           <t>PERFORMANCE METRICS</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -893,19 +903,13 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-    </row>
+    <row r="33"/>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
           <t>DATA GAPS</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -975,19 +979,13 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-    </row>
+    <row r="39"/>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
           <t>ANALYSIS VALIDITY</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1220,21 +1218,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-    </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
       <c r="D7">
         <f>SUM(D2:D5)</f>
         <v/>
@@ -1251,8 +1241,6 @@
           <t>Cost Per Door (312 units)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
       <c r="D8">
         <f>D7/312</f>
         <v/>
@@ -1263,26 +1251,18 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-    </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t>DATA LIMITATION</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>This is ONE invoice only - not representative of typical monthly costs</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Need 6-12 months for reliable cost analysis</t>
@@ -1342,11 +1322,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -1364,11 +1340,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -1386,11 +1358,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
+    <row r="7"/>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -1408,11 +1376,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
@@ -1430,19 +1394,13 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>DATA REQUIREMENTS</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1495,19 +1453,13 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t>NEXT STEPS</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1750,12 +1702,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -1857,10 +1804,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-    </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -1921,17 +1865,13 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-    </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
           <t>METHODOLOGY</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1981,17 +1921,13 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-    </row>
+    <row r="18"/>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
           <t>DATA GAPS IDENTIFIED</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2041,17 +1977,13 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
           <t>IMPACT ON ANALYSIS</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2077,17 +2009,13 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
           <t>RECOMMENDATIONS</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2137,17 +2065,13 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-    </row>
+    <row r="34"/>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
           <t>CONFIDENCE ASSESSMENT</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2252,10 +2176,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -2292,17 +2213,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-    </row>
+    <row r="7"/>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>KNOWN CONTRACT INFORMATION</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2352,17 +2269,13 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
           <t>CRITICAL NEED</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2376,17 +2289,13 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t>ACTION REQUIRED</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2427,4 +2336,229 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>REGULATORY COMPLIANCE ANALYSIS - Orion Prosper</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Research Date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Confidence Level:</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>PROPERTY INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Location:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prosper, TX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>State:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Units:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>RECYCLING REQUIREMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>VERIFICATION REQUIRED</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>TEXAS FINDINGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>[!] LIMITED INFORMATION AVAILABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Municipal ordinances not publicly accessible online</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Manual verification required with city solid waste department</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Contact for Verification:</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Town of Prosper: 945-234-1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>RECOMMENDED NEXT STEPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1. Contact city solid waste department (contact info above)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2. Request solid waste ordinance and multifamily requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3. Verify current waste hauler licensing status</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4. Update regulatory compliance summary with findings</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>Generated by: WasteWise Regulatory Compliance Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>For detailed findings, see: Properties/Orion_Prosper/Regulatory_Compliance_Summary.md</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>